--- a/7_figure/traitement.xlsx
+++ b/7_figure/traitement.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Référencement" sheetId="2" r:id="rId2"/>
+    <sheet name="Modélisation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="35">
   <si>
     <t>Type de référencement</t>
   </si>
@@ -107,12 +109,6 @@
     <t>Ladybug</t>
   </si>
   <si>
-    <t>Traitée</t>
-  </si>
-  <si>
-    <t>Non traitée</t>
-  </si>
-  <si>
     <t>Traitement</t>
   </si>
   <si>
@@ -120,13 +116,28 @@
   </si>
   <si>
     <t>Scanner / Photogrammétrie</t>
+  </si>
+  <si>
+    <t>Via des cibles pour P40 / assemblage de nuage photogrammétrique sur le P40</t>
+  </si>
+  <si>
+    <t>Canon EOS 5DS R / Faro</t>
+  </si>
+  <si>
+    <t>Via des cibles / assemblage de nuage Faro intérieur sur la photogrammétrie extérieur</t>
+  </si>
+  <si>
+    <t>Photogrammétrie / scanner</t>
+  </si>
+  <si>
+    <t>Drone Bebop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,25 +160,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -462,24 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -567,95 +570,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,16 +1067,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:M37"/>
+  <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
@@ -955,7 +1086,7 @@
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>16</v>
@@ -969,7 +1100,7 @@
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -979,17 +1110,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="60" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -998,50 +1129,50 @@
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1050,50 +1181,50 @@
       <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="21"/>
+      <c r="H14" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="G16" s="18"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
         <v>3</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="54" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1102,51 +1233,51 @@
       <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="G19" s="18"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>7</v>
+      <c r="C20" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
@@ -1154,286 +1285,1862 @@
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="21"/>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="42">
         <v>5</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>4</v>
+      <c r="B23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
+      <c r="H23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>6</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="36" t="s">
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H27" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>6</v>
-      </c>
-      <c r="B27" s="17" t="s">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>7</v>
+      </c>
+      <c r="B30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C30" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D30" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="2" t="s">
+      <c r="H30" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="36" t="s">
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>7</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>8</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>9</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>10</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="2" t="s">
+      <c r="H42" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="36" t="s">
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H43" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
+  <mergeCells count="40">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
+        <v>1</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>2</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>3</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>4</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>5</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>6</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>7</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>8</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>9</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>10</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
+        <v>1</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>2</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>3</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>4</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>5</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>6</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>7</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>8</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>9</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>10</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_figure/traitement.xlsx
+++ b/7_figure/traitement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="35">
   <si>
     <t>Type de référencement</t>
   </si>
@@ -611,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -662,8 +662,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,15 +690,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,15 +699,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,39 +732,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,42 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,16 +1110,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="53">
         <v>1</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1137,10 +1136,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="58"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1151,9 +1150,9 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
@@ -1163,16 +1162,16 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="47">
         <v>2</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="44" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1189,10 +1188,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="58"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1203,9 +1202,9 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="59"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -1215,16 +1214,16 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="47">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="61" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1241,10 +1240,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1255,10 +1254,10 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1267,16 +1266,16 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="44" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1293,10 +1292,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="58"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,9 +1306,9 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="59"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -1319,16 +1318,16 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="A23" s="47">
         <v>5</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1345,10 +1344,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="58"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1359,9 +1358,9 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="59"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
@@ -1371,16 +1370,16 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="47">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="44" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1397,10 +1396,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1415,10 +1414,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1427,10 +1426,10 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="64"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1439,16 +1438,16 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="47">
         <v>7</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="44" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1465,10 +1464,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1483,10 +1482,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1495,10 +1494,10 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="64"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
@@ -1507,16 +1506,16 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="47">
         <v>8</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="44" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1533,10 +1532,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1551,10 +1550,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1563,10 +1562,10 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="64"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1575,16 +1574,16 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
-        <v>9</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="47">
+        <v>9</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1601,10 +1600,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1619,10 +1618,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1631,10 +1630,10 @@
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
@@ -1643,16 +1642,16 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
-        <v>10</v>
-      </c>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="47">
+        <v>10</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="50" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -1669,10 +1668,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="49"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
@@ -1687,10 +1686,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1699,10 +1698,10 @@
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1713,30 +1712,6 @@
     <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
@@ -1753,6 +1728,30 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1763,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -1805,16 +1804,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="53">
         <v>1</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="78" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1831,10 +1830,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1845,10 +1844,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1857,16 +1856,16 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="47">
         <v>2</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="67" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1883,10 +1882,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="66"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1897,10 +1896,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="67"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1909,16 +1908,16 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="47">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="79" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1935,10 +1934,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="69"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1949,10 +1948,10 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1961,16 +1960,16 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="67" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1987,10 +1986,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2001,10 +2000,10 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
@@ -2013,16 +2012,16 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="A23" s="47">
         <v>5</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="64" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2039,10 +2038,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2053,10 +2052,10 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2065,16 +2064,16 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="47">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="67" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2091,10 +2090,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2109,10 +2108,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="66"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2121,10 +2120,10 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="75"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2133,16 +2132,16 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="47">
         <v>7</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2159,10 +2158,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="77"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2177,10 +2176,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2189,10 +2188,10 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
@@ -2201,16 +2200,16 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="47">
         <v>8</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="67" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2227,10 +2226,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="66"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2245,10 +2244,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="66"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2257,10 +2256,10 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="75"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
@@ -2269,16 +2268,16 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
-        <v>9</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="47">
+        <v>9</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2295,10 +2294,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="80"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2313,10 +2312,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2325,10 +2324,10 @@
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="81"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
@@ -2337,13 +2336,13 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
-        <v>10</v>
-      </c>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="47">
+        <v>10</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="71" t="s">
@@ -2363,9 +2362,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="72"/>
       <c r="E43" s="2" t="s">
         <v>21</v>
@@ -2381,9 +2380,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="72"/>
       <c r="E44" s="2" t="s">
         <v>9</v>
@@ -2393,9 +2392,9 @@
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="73"/>
       <c r="E45" s="5" t="s">
         <v>10</v>
@@ -2407,18 +2406,18 @@
     <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
@@ -2435,18 +2434,18 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2457,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,16 +2498,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="53">
         <v>1</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="78" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -2520,15 +2519,15 @@
       <c r="G11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
@@ -2539,10 +2538,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
@@ -2551,16 +2550,16 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="47">
         <v>2</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="67" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
@@ -2577,10 +2576,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="66"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
@@ -2591,10 +2590,10 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="67"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -2603,16 +2602,16 @@
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="47">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="79" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
@@ -2629,10 +2628,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="69"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="29" t="s">
         <v>9</v>
       </c>
@@ -2643,10 +2642,10 @@
       <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="30" t="s">
         <v>10</v>
       </c>
@@ -2655,25 +2654,25 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="67" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="31" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="32" t="s">
@@ -2681,24 +2680,24 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2707,16 +2706,16 @@
       <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="A23" s="47">
         <v>5</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="64" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="28" t="s">
@@ -2733,10 +2732,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="29" t="s">
         <v>9</v>
       </c>
@@ -2747,10 +2746,10 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="30" t="s">
         <v>10</v>
       </c>
@@ -2759,16 +2758,16 @@
       <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="47">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="67" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="25" t="s">
@@ -2785,10 +2784,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="22" t="s">
         <v>21</v>
       </c>
@@ -2803,40 +2802,44 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="66"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="75"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="47">
         <v>7</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="25" t="s">
@@ -2853,10 +2856,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="77"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="22" t="s">
         <v>21</v>
       </c>
@@ -2866,45 +2869,49 @@
       <c r="G31" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
+      <c r="H32" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="47">
         <v>8</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="75" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="28" t="s">
@@ -2921,10 +2928,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="77"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="29" t="s">
         <v>21</v>
       </c>
@@ -2934,45 +2941,49 @@
       <c r="G35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="77"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
+      <c r="H36" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="78"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
-        <v>9</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="47">
+        <v>9</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="28" t="s">
@@ -2989,10 +3000,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="80"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="29" t="s">
         <v>21</v>
       </c>
@@ -3007,10 +3018,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="29" t="s">
         <v>9</v>
       </c>
@@ -3019,10 +3030,10 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="81"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="37" t="s">
         <v>10</v>
       </c>
@@ -3031,13 +3042,13 @@
       <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
-        <v>10</v>
-      </c>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="47">
+        <v>10</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="71" t="s">
@@ -3057,9 +3068,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="72"/>
       <c r="E43" s="29" t="s">
         <v>21</v>
@@ -3075,9 +3086,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="72"/>
       <c r="E44" s="29" t="s">
         <v>9</v>
@@ -3087,9 +3098,9 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="73"/>
       <c r="E45" s="37" t="s">
         <v>10</v>
@@ -3101,6 +3112,38 @@
     <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -3109,38 +3152,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_figure/traitement.xlsx
+++ b/7_figure/traitement.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Référencement" sheetId="2" r:id="rId2"/>
     <sheet name="Modélisation" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="42">
   <si>
     <t>Type de référencement</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>Drone Bebop</t>
+  </si>
+  <si>
+    <t>Héron</t>
+  </si>
+  <si>
+    <t>Scanner mobile</t>
+  </si>
+  <si>
+    <t>Coordonnées de stations connues / assemblage de nuage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photogrammétrie </t>
+  </si>
+  <si>
+    <t>Facteur d'échelle / via un nuage référencé</t>
+  </si>
+  <si>
+    <t>Via un nuage référencé</t>
+  </si>
+  <si>
+    <t>Digitaliser sur plan</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -607,11 +628,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -663,6 +734,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,63 +757,114 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,50 +876,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:H46"/>
+  <dimension ref="A9:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,16 +1203,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+      <c r="A11" s="67">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="65" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1136,10 +1229,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,10 +1243,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1162,17 +1255,17 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="45">
         <v>2</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>1</v>
+      <c r="D14" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
@@ -1188,10 +1281,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1202,10 +1295,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1214,16 +1307,16 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="57" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1240,10 +1333,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="62"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1254,10 +1347,10 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1266,17 +1359,17 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>1</v>
+      <c r="D20" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
@@ -1292,10 +1385,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1306,10 +1399,10 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1318,16 +1411,16 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="45">
         <v>5</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="51" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1344,10 +1437,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1358,10 +1451,10 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="59"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1370,16 +1463,16 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+      <c r="A26" s="45">
         <v>6</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="60" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1396,10 +1489,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1414,40 +1507,44 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="45">
         <v>7</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="60" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1464,10 +1561,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1482,40 +1579,44 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="45"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="46"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+      <c r="A34" s="45">
         <v>8</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="60" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1532,10 +1633,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1550,40 +1651,44 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="46"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <v>9</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="45">
+        <v>9</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1600,10 +1705,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1618,40 +1723,44 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="51"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
-        <v>10</v>
-      </c>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="45">
+        <v>10</v>
+      </c>
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -1668,10 +1777,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
@@ -1686,32 +1795,248 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="51"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H45" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="67">
+        <v>11</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="67">
+        <v>12</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="46"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="45">
+        <v>13</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="52">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
@@ -1728,30 +2053,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1760,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:H46"/>
+  <dimension ref="A9:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,16 +2105,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+      <c r="A11" s="67">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="74" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1830,10 +2131,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,10 +2145,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="69"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1856,16 +2157,16 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="45">
         <v>2</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="80" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1882,10 +2183,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="68"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1896,10 +2197,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="69"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1908,16 +2209,16 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="77" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1934,10 +2235,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1948,10 +2249,10 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1960,16 +2261,16 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="80" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1986,10 +2287,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2000,10 +2301,10 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
@@ -2012,16 +2313,16 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="45">
         <v>5</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="88" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2038,10 +2339,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2052,10 +2353,10 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="70"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2064,16 +2365,16 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+      <c r="A26" s="45">
         <v>6</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="80" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2090,10 +2391,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="68"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2108,10 +2409,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2120,10 +2421,10 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="74"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2132,16 +2433,16 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="45">
         <v>7</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2158,10 +2459,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2176,10 +2477,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2188,10 +2489,10 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
@@ -2200,16 +2501,16 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+      <c r="A34" s="45">
         <v>8</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="80" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2226,10 +2527,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2244,10 +2545,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2256,10 +2557,10 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="74"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
@@ -2268,16 +2569,16 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <v>9</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="45">
+        <v>9</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2294,10 +2595,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2312,10 +2613,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2324,10 +2625,10 @@
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="66"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
@@ -2336,16 +2637,16 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
-        <v>10</v>
-      </c>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="45">
+        <v>10</v>
+      </c>
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="81" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2362,10 +2663,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="72"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
@@ -2380,10 +2681,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="72"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
@@ -2392,10 +2693,10 @@
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="73"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2403,21 +2704,209 @@
       <c r="G45" s="20"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="67">
+        <v>11</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="67">
+        <v>12</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="46"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="45">
+        <v>13</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
+  <mergeCells count="52">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
@@ -2434,18 +2923,18 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2456,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,16 +2987,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+      <c r="A11" s="67">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="74" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -2524,24 +3013,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="69"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
@@ -2550,16 +3041,16 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="45">
         <v>2</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="80" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
@@ -2576,24 +3067,26 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="68"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="69"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -2602,16 +3095,16 @@
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="77" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
@@ -2628,24 +3121,26 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="30" t="s">
         <v>10</v>
       </c>
@@ -2654,22 +3149,22 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="80" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="31" t="s">
@@ -2680,24 +3175,26 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="33"/>
+      <c r="F21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2706,16 +3203,16 @@
       <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="45">
         <v>5</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="88" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="28" t="s">
@@ -2732,24 +3229,26 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="70"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="30" t="s">
         <v>10</v>
       </c>
@@ -2758,16 +3257,16 @@
       <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+      <c r="A26" s="45">
         <v>6</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="80" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="25" t="s">
@@ -2784,10 +3283,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="68"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="22" t="s">
         <v>21</v>
       </c>
@@ -2802,47 +3301,47 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="74"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="45">
         <v>7</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="28" t="s">
@@ -2856,10 +3355,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="22" t="s">
         <v>21</v>
       </c>
@@ -2869,15 +3368,15 @@
       <c r="G31" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
@@ -2888,10 +3387,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="37" t="s">
         <v>10</v>
       </c>
@@ -2902,16 +3401,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+      <c r="A34" s="45">
         <v>8</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="80" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="28" t="s">
@@ -2928,10 +3427,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="76"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="29" t="s">
         <v>21</v>
       </c>
@@ -2941,15 +3440,15 @@
       <c r="G35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="76"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="29" t="s">
         <v>9</v>
       </c>
@@ -2960,10 +3459,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="77"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="37" t="s">
         <v>10</v>
       </c>
@@ -2974,16 +3473,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <v>9</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="45">
+        <v>9</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="28" t="s">
@@ -3000,10 +3499,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="29" t="s">
         <v>21</v>
       </c>
@@ -3018,40 +3517,44 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="66"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
-        <v>10</v>
-      </c>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="45">
+        <v>10</v>
+      </c>
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="81" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="28" t="s">
@@ -3068,10 +3571,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="72"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="29" t="s">
         <v>21</v>
       </c>
@@ -3086,32 +3589,68 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="72"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
+      <c r="H44" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="73"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
@@ -3120,38 +3659,6 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="D42:D45"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
